--- a/Chess ADT plan.xlsx
+++ b/Chess ADT plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://technionmail-my.sharepoint.com/personal/guycoh_campus_technion_ac_il/Documents/1 Courses/מבוא לתכנות מערכות/HW/HW1/Chess/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="8_{C52EADB1-DC08-054B-BA97-FE992917F3A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AB334E08-B110-A54B-8C7C-6A3B7F0DC879}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="8_{C52EADB1-DC08-054B-BA97-FE992917F3A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{077E4DDD-6C19-8340-BF5F-DB5336CA5AE6}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{71E549D7-C5B6-1F42-B866-3BBA66337262}"/>
   </bookViews>
@@ -155,7 +155,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -179,13 +179,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -200,20 +213,9 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -226,10 +228,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -241,25 +243,8 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -268,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -279,25 +264,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -783,7 +765,7 @@
   <dimension ref="C5:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -799,28 +781,28 @@
   <sheetData>
     <row r="5" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -828,82 +810,82 @@
       <c r="C10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C12" s="4" t="s">
+    <row r="12" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="5:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="5:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="5:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="5:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E26" s="3"/>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="8" t="s">
         <v>21</v>
       </c>
     </row>

--- a/Chess ADT plan.xlsx
+++ b/Chess ADT plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://technionmail-my.sharepoint.com/personal/guycoh_campus_technion_ac_il/Documents/1 Courses/מבוא לתכנות מערכות/HW/HW1/Chess/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="8_{C52EADB1-DC08-054B-BA97-FE992917F3A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{077E4DDD-6C19-8340-BF5F-DB5336CA5AE6}"/>
+  <xr:revisionPtr revIDLastSave="120" documentId="8_{C52EADB1-DC08-054B-BA97-FE992917F3A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BB25653D-63C4-0B49-BB43-C08B4C35011E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{71E549D7-C5B6-1F42-B866-3BBA66337262}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
   <si>
     <t>Chess System</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>num_of_players</t>
+  </si>
+  <si>
+    <t>Version 1</t>
   </si>
 </sst>
 </file>
@@ -155,7 +158,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -249,11 +252,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -280,6 +320,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -358,59 +407,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>116416</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1100666</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>105833</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Curved Connector 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AE34930-F038-474E-8D63-D0FEA39B23C6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2836333" y="2391833"/>
-          <a:ext cx="2286000" cy="1841500"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>10584</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -437,6 +433,220 @@
         <a:xfrm flipV="1">
           <a:off x="6752167" y="1534583"/>
           <a:ext cx="1629833" cy="645584"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1174750</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1111250</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Curved Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1AB584-86B0-7140-B1B4-64DA94C0EEBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2825750" y="1111251"/>
+          <a:ext cx="2307167" cy="1090082"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 44037"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>116416</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1100666</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>105833</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Curved Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{442CCF83-8D4D-DF4C-B319-70E3292E1060}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2836333" y="2391833"/>
+          <a:ext cx="2286000" cy="1841500"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>10584</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>814917</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>105834</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Curved Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC58D532-5709-D745-8D0A-AB15E88800DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6752167" y="1534583"/>
+          <a:ext cx="1629833" cy="645584"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1576917</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Curved Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07CB4965-968E-374E-9208-AC6C9192B1D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6720417" y="2402417"/>
+          <a:ext cx="1672166" cy="1418166"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst/>
@@ -762,10 +972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB05A1B-EDB7-F047-8698-7677345CFB0F}">
-  <dimension ref="C5:I26"/>
+  <dimension ref="A5:K71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -775,7 +985,7 @@
     <col min="5" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="10.83203125" style="1"/>
-    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.1640625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -829,11 +1039,9 @@
       </c>
     </row>
     <row r="12" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="8"/>
+      <c r="F12" s="7" t="s">
         <v>5</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>15</v>
@@ -857,39 +1065,170 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="5:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="5:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="4" t="s">
+    <row r="18" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="5:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="5" t="s">
+    <row r="20" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="6" t="s">
+    <row r="21" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="I21" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="7" t="s">
+    <row r="22" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="I22" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="7" t="s">
+    <row r="23" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="I23" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="5:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E26" s="3"/>
-      <c r="F26" s="8" t="s">
+    </row>
+    <row r="43" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="12"/>
+    </row>
+    <row r="50" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F51" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F52" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F53" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F54" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C56" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F58" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F59" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F60" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="5:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="5:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F66" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="5:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F67" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F68" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F69" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F70" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="5:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E71" s="3"/>
+      <c r="F71" s="8" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A44:K44"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Chess ADT plan.xlsx
+++ b/Chess ADT plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://technionmail-my.sharepoint.com/personal/guycoh_campus_technion_ac_il/Documents/1 Courses/מבוא לתכנות מערכות/HW/HW1/Chess/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="8_{C52EADB1-DC08-054B-BA97-FE992917F3A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BB25653D-63C4-0B49-BB43-C08B4C35011E}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="8_{C52EADB1-DC08-054B-BA97-FE992917F3A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9156637F-D93B-5F41-9F7C-919195C43564}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{71E549D7-C5B6-1F42-B866-3BBA66337262}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="30">
   <si>
     <t>Chess System</t>
   </si>
@@ -109,6 +109,21 @@
   </si>
   <si>
     <t>Version 1</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>Version 2</t>
+  </si>
+  <si>
+    <t>All Players</t>
+  </si>
+  <si>
+    <t>player_statistics_map</t>
+  </si>
+  <si>
+    <t>Player statistics</t>
   </si>
 </sst>
 </file>
@@ -293,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -331,6 +346,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,13 +372,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1174750</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1111250</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -409,13 +427,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>10584</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>814917</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>105834</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -462,13 +480,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1174750</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1111250</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -517,13 +535,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>116416</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1100666</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>105833</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -570,13 +588,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>10584</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>814917</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>105834</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -623,13 +641,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1576917</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -647,6 +665,220 @@
         <a:xfrm>
           <a:off x="6720417" y="2402417"/>
           <a:ext cx="1672166" cy="1418166"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1174750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1111250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Curved Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEC964AE-29AC-F341-ADA4-30A8CFB69277}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2825750" y="1111251"/>
+          <a:ext cx="2307167" cy="1090082"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 44037"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>10584</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>814917</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>105834</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Curved Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95F0316-7A84-1C48-8135-D99FCA1455C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6752167" y="1534583"/>
+          <a:ext cx="1629833" cy="645584"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1576917</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Curved Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91FBD069-BD38-C541-8A47-7D892DFC3690}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6720417" y="2402417"/>
+          <a:ext cx="1672166" cy="1418166"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>21167</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>148167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>116417</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Curved Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05BA4095-D8EB-6549-B6EE-20C25C61EACC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="18002250"/>
+          <a:ext cx="2286000" cy="1841500"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst/>
@@ -972,10 +1204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB05A1B-EDB7-F047-8698-7677345CFB0F}">
-  <dimension ref="A5:K71"/>
+  <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -989,245 +1221,383 @@
     <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="6" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F11" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="I20" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E23" s="3"/>
+    </row>
+    <row r="48" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="12"/>
+    </row>
+    <row r="53" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F54" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F7" s="5" t="s">
+    <row r="55" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F55" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F8" s="6" t="s">
+    <row r="56" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F56" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I56" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F9" s="7" t="s">
+    <row r="57" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F57" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I57" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="2" t="s">
+    <row r="58" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F58" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I58" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C11" s="9" t="s">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C59" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F59" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I59" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="8"/>
-      <c r="F12" s="7" t="s">
+    <row r="60" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="8"/>
+      <c r="F60" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I60" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F13" s="7" t="s">
+    <row r="61" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F61" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I61" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="F14" s="7" t="s">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F62" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F15" s="8" t="s">
+    <row r="63" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F63" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I19" s="4" t="s">
+    <row r="66" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I67" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I20" s="5" t="s">
+    <row r="68" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I68" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="I21" s="6" t="s">
+    <row r="69" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="I69" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="I22" s="7" t="s">
+    <row r="70" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="I70" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="I23" s="7" t="s">
+    <row r="71" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="I71" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I24" s="8" t="s">
+    <row r="72" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I72" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E26" s="3"/>
-    </row>
-    <row r="43" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
+    <row r="74" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E74" s="3"/>
+    </row>
+    <row r="80" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="12"/>
-    </row>
-    <row r="50" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F51" s="4" t="s">
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="12"/>
+    </row>
+    <row r="87" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F88" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F52" s="5" t="s">
+    <row r="89" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F89" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F53" s="6" t="s">
+    <row r="90" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F90" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I53" s="4" t="s">
+      <c r="I90" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F54" s="7" t="s">
+    <row r="91" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F91" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I54" s="5" t="s">
+      <c r="I91" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="2" t="s">
+    <row r="92" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C92" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="F92" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I55" s="6" t="s">
+      <c r="I92" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C56" s="9" t="s">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C93" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F93" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I56" s="7" t="s">
+      <c r="I93" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="8" t="s">
+    <row r="94" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C94" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="F94" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I57" s="7" t="s">
+      <c r="I94" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F58" s="7" t="s">
+    <row r="95" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F95" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I58" s="8" t="s">
+      <c r="I95" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="F59" s="7" t="s">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F96" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F60" s="8" t="s">
+    <row r="97" spans="5:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F97" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="5:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="5:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F66" s="4" t="s">
+    <row r="102" spans="5:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="5:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F103" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="5:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F67" s="5" t="s">
+    <row r="104" spans="5:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F104" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F68" s="6" t="s">
+    <row r="105" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F105" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F69" s="7" t="s">
+    <row r="106" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F106" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F70" s="7" t="s">
+    <row r="107" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F107" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="5:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E71" s="3"/>
-      <c r="F71" s="8" t="s">
+    <row r="108" spans="5:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E108" s="3"/>
+      <c r="F108" s="8" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A44:K44"/>
+  <mergeCells count="2">
+    <mergeCell ref="A81:K81"/>
+    <mergeCell ref="A49:K49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Chess ADT plan.xlsx
+++ b/Chess ADT plan.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://technionmail-my.sharepoint.com/personal/guycoh_campus_technion_ac_il/Documents/1 Courses/מבוא לתכנות מערכות/HW/HW1/Chess/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="152" documentId="8_{C52EADB1-DC08-054B-BA97-FE992917F3A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9156637F-D93B-5F41-9F7C-919195C43564}"/>
+  <xr:revisionPtr revIDLastSave="361" documentId="8_{C52EADB1-DC08-054B-BA97-FE992917F3A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C527BEEF-AA37-D246-A5E2-1BE9F1F8A467}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{71E549D7-C5B6-1F42-B866-3BBA66337262}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{71E549D7-C5B6-1F42-B866-3BBA66337262}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ADT's" sheetId="2" r:id="rId2"/>
+    <sheet name="Functions" sheetId="4" r:id="rId3"/>
+    <sheet name="Return Values" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="60">
   <si>
     <t>Chess System</t>
   </si>
@@ -124,13 +127,103 @@
   </si>
   <si>
     <t>Player statistics</t>
+  </si>
+  <si>
+    <t>Return Values</t>
+  </si>
+  <si>
+    <t>במקרה זה יש לצאת לשחרר את כל הזיכרון ולצאת מהתוכנה</t>
+  </si>
+  <si>
+    <t>במידה ומתרחשת שגיאה על המערכת לפעול כאילו לא בוצעה הפעולה שגרמה לשגיאה</t>
+  </si>
+  <si>
+    <t>CHESS_NULL_ARGUMENT</t>
+  </si>
+  <si>
+    <t>CHESS_OUT_OF_MEMORY</t>
+  </si>
+  <si>
+    <t>CHESS_INVALID_ID</t>
+  </si>
+  <si>
+    <t>CHESS_SUCCESS</t>
+  </si>
+  <si>
+    <t>CHESS_INVALID_LOCATION,</t>
+  </si>
+  <si>
+    <t>CHESS_INVALID_MAX_GAMES,</t>
+  </si>
+  <si>
+    <t>CHESS_TOURNAMENT_ALREADY_EXISTS,</t>
+  </si>
+  <si>
+    <t>CHESS_TOURNAMENT_NOT_EXIST,</t>
+  </si>
+  <si>
+    <t>CHESS_GAME_ALREADY_EXISTS,</t>
+  </si>
+  <si>
+    <t>CHESS_INVALID_PLAY_TIME,</t>
+  </si>
+  <si>
+    <t>CHESS_EXCEEDED_GAMES,</t>
+  </si>
+  <si>
+    <t>CHESS_PLAYER_NOT_EXIST,</t>
+  </si>
+  <si>
+    <t>CHESS_TOURNAMENT_ENDED,</t>
+  </si>
+  <si>
+    <t>CHESS_NO_TOURNAMENTS_ENDED,</t>
+  </si>
+  <si>
+    <t>CHESS_NO_GAMES,</t>
+  </si>
+  <si>
+    <t>CHESS_SAVE_FAILURE,</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Players</t>
+  </si>
+  <si>
+    <t>Player Statistics</t>
+  </si>
+  <si>
+    <t>library</t>
+  </si>
+  <si>
+    <t>Public Functions</t>
+  </si>
+  <si>
+    <t>playerAdd</t>
+  </si>
+  <si>
+    <t>playerRemove</t>
+  </si>
+  <si>
+    <t>playerUpdateLevel</t>
+  </si>
+  <si>
+    <t>gameAdd</t>
+  </si>
+  <si>
+    <t>gameRemovePlayer</t>
+  </si>
+  <si>
+    <t>gameGetPlayerStatistics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -146,8 +239,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,8 +271,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -197,6 +308,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -207,6 +333,19 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -304,11 +443,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -319,18 +488,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -346,7 +509,49 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1206,8 +1411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB05A1B-EDB7-F047-8698-7677345CFB0F}">
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection sqref="A1:Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1259,15 +1464,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>16</v>
+      <c r="I8" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1277,16 +1482,16 @@
       <c r="F9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>15</v>
+      <c r="I9" s="14" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>7</v>
+      <c r="I10" s="15" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.2">
@@ -1602,4 +1807,361 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F94A33-14D8-3B4C-87D8-D0DF5D26FDAD}">
+  <dimension ref="C2:I26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="20.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="23" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="24" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="G9" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="G10" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E15" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E16" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E22" s="3"/>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C25" s="16"/>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26AF13F-382D-EE4D-8DB2-01DAED232B99}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
+    <col min="2" max="6" width="17.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="35" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A23BD8F7-6583-5B4E-8FCE-A15948541953}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A31" sqref="A30:A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.83203125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="24"/>
+    </row>
+    <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="17"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="17"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="17"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="17"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="17"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="17"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="17"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="17"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="17"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="17"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="17"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="17"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="17"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="17"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Chess ADT plan.xlsx
+++ b/Chess ADT plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://technionmail-my.sharepoint.com/personal/guycoh_campus_technion_ac_il/Documents/1 Courses/מבוא לתכנות מערכות/HW/HW1/Chess/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="361" documentId="8_{C52EADB1-DC08-054B-BA97-FE992917F3A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C527BEEF-AA37-D246-A5E2-1BE9F1F8A467}"/>
+  <xr:revisionPtr revIDLastSave="442" documentId="8_{C52EADB1-DC08-054B-BA97-FE992917F3A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{67AD0941-DBF9-D345-9B9D-17595D9F84C0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{71E549D7-C5B6-1F42-B866-3BBA66337262}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="2" xr2:uid="{71E549D7-C5B6-1F42-B866-3BBA66337262}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="75">
   <si>
     <t>Chess System</t>
   </si>
@@ -189,6 +189,15 @@
     <t>Notes</t>
   </si>
   <si>
+    <t>chessCreate</t>
+  </si>
+  <si>
+    <t>chessDestroy</t>
+  </si>
+  <si>
+    <t>chessAddTournament</t>
+  </si>
+  <si>
     <t>Players</t>
   </si>
   <si>
@@ -210,13 +219,49 @@
     <t>playerUpdateLevel</t>
   </si>
   <si>
-    <t>gameAdd</t>
-  </si>
-  <si>
     <t>gameRemovePlayer</t>
   </si>
   <si>
     <t>gameGetPlayerStatistics</t>
+  </si>
+  <si>
+    <t>structs</t>
+  </si>
+  <si>
+    <t>maps</t>
+  </si>
+  <si>
+    <t>tournamentEnded</t>
+  </si>
+  <si>
+    <t>tournamentAddGame</t>
+  </si>
+  <si>
+    <t>gameGetLongerstPlaytTime</t>
+  </si>
+  <si>
+    <t>gameGetTotalPlayTime</t>
+  </si>
+  <si>
+    <t>chessAddGame</t>
+  </si>
+  <si>
+    <t>chessRemoveTournament</t>
+  </si>
+  <si>
+    <t>chessRemovePlayer</t>
+  </si>
+  <si>
+    <t>chessEndTournament</t>
+  </si>
+  <si>
+    <t>chessCalculateAveragePlayTime</t>
+  </si>
+  <si>
+    <t>chessSavePlayersLevels</t>
+  </si>
+  <si>
+    <t>chessSaveTournamentStatistics</t>
   </si>
 </sst>
 </file>
@@ -284,7 +329,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -473,11 +518,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -551,8 +633,32 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1811,10 +1917,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F94A33-14D8-3B4C-87D8-D0DF5D26FDAD}">
-  <dimension ref="C2:I26"/>
+  <dimension ref="A2:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1832,130 +1938,128 @@
     <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>28</v>
+      <c r="E5" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="G5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G7" s="8" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="G7" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G8" s="7" t="s">
+    <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="G8" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="G9" s="7" t="s">
+    <row r="9" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="G10" s="7" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E10" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G11" s="8" t="s">
+    <row r="11" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="4" t="s">
+    <row r="12" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E15" s="6" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C14" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E16" s="7" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C15" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E17" s="7" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C16" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="8" t="s">
+    <row r="17" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E22" s="3"/>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C25" s="16"/>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C26"/>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C24" s="16"/>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1965,67 +2069,351 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26AF13F-382D-EE4D-8DB2-01DAED232B99}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
-    <col min="2" max="6" width="17.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="32"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="28"/>
+      <c r="B3" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="33"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="28"/>
+      <c r="B4" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="C4" s="33" t="s">
         <v>59</v>
       </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="33"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="28"/>
+      <c r="B5" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="33"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="28"/>
+      <c r="B6" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="33"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="28"/>
+      <c r="B7" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="28"/>
+      <c r="B8" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="28"/>
+      <c r="B9" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="28"/>
+      <c r="B10" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="28"/>
+      <c r="B11" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="28"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="28"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="29"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="30"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="30"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="30"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="30"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="30"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="30"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="30"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="30"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="30"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="30"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="30"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="30"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="30"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="30"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="30"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="30"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="30"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="30"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="30"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="31"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A14"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Chess ADT plan.xlsx
+++ b/Chess ADT plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://technionmail-my.sharepoint.com/personal/guycoh_campus_technion_ac_il/Documents/1 Courses/מבוא לתכנות מערכות/HW/HW1/Chess/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="442" documentId="8_{C52EADB1-DC08-054B-BA97-FE992917F3A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{67AD0941-DBF9-D345-9B9D-17595D9F84C0}"/>
+  <xr:revisionPtr revIDLastSave="459" documentId="8_{C52EADB1-DC08-054B-BA97-FE992917F3A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F0B99E93-3E49-5C43-98A8-10955248DE76}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="2" xr2:uid="{71E549D7-C5B6-1F42-B866-3BBA66337262}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="77">
   <si>
     <t>Chess System</t>
   </si>
@@ -210,12 +210,6 @@
     <t>Public Functions</t>
   </si>
   <si>
-    <t>playerAdd</t>
-  </si>
-  <si>
-    <t>playerRemove</t>
-  </si>
-  <si>
     <t>playerUpdateLevel</t>
   </si>
   <si>
@@ -237,9 +231,6 @@
     <t>tournamentAddGame</t>
   </si>
   <si>
-    <t>gameGetLongerstPlaytTime</t>
-  </si>
-  <si>
     <t>gameGetTotalPlayTime</t>
   </si>
   <si>
@@ -262,6 +253,21 @@
   </si>
   <si>
     <t>chessSaveTournamentStatistics</t>
+  </si>
+  <si>
+    <t>playerCreate</t>
+  </si>
+  <si>
+    <t>gameCreate</t>
+  </si>
+  <si>
+    <t>gameGetLongerstPlayTime</t>
+  </si>
+  <si>
+    <t>gameGetWinner</t>
+  </si>
+  <si>
+    <t>gameGetPlayTime</t>
   </si>
 </sst>
 </file>
@@ -1941,7 +1947,7 @@
     <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
@@ -2026,7 +2032,7 @@
     <row r="12" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>29</v>
@@ -2072,7 +2078,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2114,13 +2120,13 @@
         <v>50</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F2" s="32"/>
     </row>
@@ -2130,11 +2136,13 @@
         <v>51</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="33"/>
+        <v>57</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>73</v>
+      </c>
       <c r="E3" s="33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F3" s="33"/>
     </row>
@@ -2143,43 +2151,45 @@
       <c r="B4" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="33" t="s">
         <v>59</v>
-      </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33" t="s">
-        <v>61</v>
       </c>
       <c r="F4" s="33"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="28"/>
       <c r="B5" s="33" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
+      <c r="D5" s="33" t="s">
+        <v>76</v>
+      </c>
       <c r="E5" s="33" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F5" s="33"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="28"/>
       <c r="B6" s="33" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="33" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F6" s="33"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="28"/>
       <c r="B7" s="33" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
@@ -2189,7 +2199,7 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="28"/>
       <c r="B8" s="33" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
@@ -2199,7 +2209,7 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="28"/>
       <c r="B9" s="33" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
@@ -2209,7 +2219,7 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="28"/>
       <c r="B10" s="33" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
@@ -2219,7 +2229,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="28"/>
       <c r="B11" s="33" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>

--- a/Chess ADT plan.xlsx
+++ b/Chess ADT plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://technionmail-my.sharepoint.com/personal/guycoh_campus_technion_ac_il/Documents/1 Courses/מבוא לתכנות מערכות/HW/HW1/Chess/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="459" documentId="8_{C52EADB1-DC08-054B-BA97-FE992917F3A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F0B99E93-3E49-5C43-98A8-10955248DE76}"/>
+  <xr:revisionPtr revIDLastSave="498" documentId="8_{C52EADB1-DC08-054B-BA97-FE992917F3A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{86F9E424-E21D-A04E-AAC1-975CA3197A38}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="2" xr2:uid="{71E549D7-C5B6-1F42-B866-3BBA66337262}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{71E549D7-C5B6-1F42-B866-3BBA66337262}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="76">
   <si>
     <t>Chess System</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Version 1</t>
   </si>
   <si>
-    <t>level</t>
-  </si>
-  <si>
     <t>Version 2</t>
   </si>
   <si>
@@ -219,9 +216,6 @@
     <t>gameGetPlayerStatistics</t>
   </si>
   <si>
-    <t>structs</t>
-  </si>
-  <si>
     <t>maps</t>
   </si>
   <si>
@@ -268,6 +262,9 @@
   </si>
   <si>
     <t>gameGetPlayTime</t>
+  </si>
+  <si>
+    <t>winner_id</t>
   </si>
 </sst>
 </file>
@@ -297,7 +294,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,12 +321,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.749992370372631"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -565,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -603,25 +594,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1524,7 +1506,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:Q41"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1534,7 +1516,7 @@
     <col min="5" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="10.83203125" style="1"/>
-    <col min="9" max="9" width="17.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.83203125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -1592,18 +1574,12 @@
         <v>5</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.2">
       <c r="F10" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.2">
@@ -1616,53 +1592,72 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I14" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="16" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I16" s="4" t="s">
-        <v>29</v>
+      <c r="I16" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F20" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="I20" s="7" t="s">
+    <row r="21" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F21" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I21" s="8" t="s">
+    <row r="22" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E23" s="3"/>
     </row>
-    <row r="48" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="9:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="9:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I47" s="11"/>
+    </row>
+    <row r="48" spans="9:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -1671,7 +1666,6 @@
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
       <c r="J49" s="11"/>
       <c r="K49" s="12"/>
     </row>
@@ -1680,26 +1674,32 @@
       <c r="F54" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="I54" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="55" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F55" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I55" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F56" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I56" s="4" t="s">
-        <v>3</v>
+      <c r="I56" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F57" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I57" s="5" t="s">
-        <v>11</v>
+      <c r="I57" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1709,19 +1709,19 @@
       <c r="F58" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I58" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I58" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C59" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I59" s="7" t="s">
-        <v>16</v>
+      <c r="I59" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1729,16 +1729,10 @@
       <c r="F60" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I60" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F61" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="I61" s="8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -1751,39 +1745,43 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I67" s="4" t="s">
+    <row r="64" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I65" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I68" s="5" t="s">
+    <row r="66" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I66" s="5" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="67" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="I67" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="I68" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="69" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="I69" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="70" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="I70" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="71" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="I71" s="7" t="s">
+      <c r="I69" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I72" s="8" t="s">
+    <row r="70" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I70" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="74" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E74" s="3"/>
+    </row>
+    <row r="78" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I79" s="11"/>
     </row>
     <row r="80" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="81" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1797,7 +1795,6 @@
       <c r="F81" s="11"/>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
       <c r="J81" s="11"/>
       <c r="K81" s="12"/>
     </row>
@@ -1806,26 +1803,32 @@
       <c r="F88" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="I88" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="89" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F89" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I89" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F90" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I90" s="4" t="s">
-        <v>3</v>
+      <c r="I90" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F91" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I91" s="5" t="s">
-        <v>11</v>
+      <c r="I91" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1835,19 +1838,19 @@
       <c r="F92" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I92" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I92" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C93" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F93" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I93" s="7" t="s">
-        <v>16</v>
+      <c r="I93" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1857,16 +1860,10 @@
       <c r="F94" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I94" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F95" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="I95" s="8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
@@ -1912,10 +1909,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A81:K81"/>
-    <mergeCell ref="A49:K49"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1925,8 +1918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F94A33-14D8-3B4C-87D8-D0DF5D26FDAD}">
   <dimension ref="A2:K25"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1947,7 +1940,7 @@
     <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
@@ -1959,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1986,83 +1979,52 @@
       <c r="G5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>25</v>
+      <c r="I5" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="7" t="s">
-        <v>6</v>
+      <c r="E6" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="I6" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="8" t="s">
+    </row>
+    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="8" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E10" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C14" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C15" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C16" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.2">
       <c r="K23" s="3"/>
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C24" s="16"/>
+      <c r="C24" s="13"/>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C25"/>
@@ -2077,8 +2039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26AF13F-382D-EE4D-8DB2-01DAED232B99}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="133" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2093,247 +2055,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="B2" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="29"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="25"/>
+      <c r="B3" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="32" t="s">
+      <c r="D3" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="30"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
+      <c r="B4" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="30"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="25"/>
+      <c r="B5" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="32" t="s">
+      <c r="F5" s="30"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="25"/>
+      <c r="B6" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="32"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="33"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
-      <c r="B4" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="33"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
-      <c r="B5" s="33" t="s">
+      <c r="F6" s="30"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="25"/>
+      <c r="B7" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" s="33"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
-      <c r="B6" s="33" t="s">
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="25"/>
+      <c r="B8" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="33"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
-      <c r="B7" s="33" t="s">
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="25"/>
+      <c r="B9" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
-      <c r="B8" s="33" t="s">
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="25"/>
+      <c r="B10" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
-      <c r="B9" s="33" t="s">
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="25"/>
+      <c r="B11" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
-      <c r="B10" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
-      <c r="B11" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="29"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="30"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="30"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -2341,7 +2303,7 @@
       <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="30"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -2349,7 +2311,7 @@
       <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="30"/>
+      <c r="A26" s="27"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -2357,7 +2319,7 @@
       <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="30"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -2365,7 +2327,7 @@
       <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="30"/>
+      <c r="A28" s="27"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -2373,7 +2335,7 @@
       <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="30"/>
+      <c r="A29" s="27"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -2381,7 +2343,7 @@
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="30"/>
+      <c r="A30" s="27"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -2389,7 +2351,7 @@
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="30"/>
+      <c r="A31" s="27"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -2397,7 +2359,7 @@
       <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="30"/>
+      <c r="A32" s="27"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -2405,7 +2367,7 @@
       <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="30"/>
+      <c r="A33" s="27"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -2413,7 +2375,7 @@
       <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -2434,7 +2396,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A31" sqref="A30:A31"/>
+      <selection activeCell="H5" sqref="E5:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2445,116 +2407,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="21"/>
+    </row>
+    <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="24"/>
-    </row>
-    <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="B4" s="14"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="17"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+      <c r="B5" s="14"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="14"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="14"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="14"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="14"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="14"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="14"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="14"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="14"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="14"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="14"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="14"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="14"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="17"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="17"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="17"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="17"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="17"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="17"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="17"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="17"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="17"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="17"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="17"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="17"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="17"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="17"/>
+      <c r="B18" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Chess ADT plan.xlsx
+++ b/Chess ADT plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://technionmail-my.sharepoint.com/personal/guycoh_campus_technion_ac_il/Documents/1 Courses/מבוא לתכנות מערכות/HW/HW1/Chess/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="498" documentId="8_{C52EADB1-DC08-054B-BA97-FE992917F3A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{86F9E424-E21D-A04E-AAC1-975CA3197A38}"/>
+  <xr:revisionPtr revIDLastSave="511" documentId="8_{C52EADB1-DC08-054B-BA97-FE992917F3A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B7C320AD-8C48-B142-8A38-168D8C6274FA}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{71E549D7-C5B6-1F42-B866-3BBA66337262}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="72">
   <si>
     <t>Chess System</t>
   </si>
@@ -117,15 +117,6 @@
     <t>Version 2</t>
   </si>
   <si>
-    <t>All Players</t>
-  </si>
-  <si>
-    <t>player_statistics_map</t>
-  </si>
-  <si>
-    <t>Player statistics</t>
-  </si>
-  <si>
     <t>Return Values</t>
   </si>
   <si>
@@ -196,9 +187,6 @@
   </si>
   <si>
     <t>Players</t>
-  </si>
-  <si>
-    <t>Player Statistics</t>
   </si>
   <si>
     <t>library</t>
@@ -1047,15 +1035,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>10584</xdr:colOff>
+      <xdr:colOff>42334</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>814917</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>105834</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>116417</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1070,61 +1058,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6752167" y="1534583"/>
-          <a:ext cx="1629833" cy="645584"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1576917</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Curved Connector 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91FBD069-BD38-C541-8A47-7D892DFC3690}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6720417" y="2402417"/>
-          <a:ext cx="1672166" cy="1418166"/>
+          <a:off x="6783917" y="931333"/>
+          <a:ext cx="1598083" cy="21167"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst/>
@@ -1180,6 +1115,59 @@
           <a:ext cx="2286000" cy="1841500"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1587500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>116417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>116417</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C723073-3B3B-5146-94F4-545703CC479D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6731000" y="1164167"/>
+          <a:ext cx="1661583" cy="1883833"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="19050">
@@ -1506,7 +1494,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1532,8 +1520,8 @@
       </c>
     </row>
     <row r="5" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F5" s="6" t="s">
-        <v>6</v>
+      <c r="F5" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>3</v>
@@ -1541,7 +1529,7 @@
     </row>
     <row r="6" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F6" s="7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>11</v>
@@ -1552,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>10</v>
@@ -1563,7 +1551,7 @@
         <v>14</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>7</v>
@@ -1574,87 +1562,74 @@
         <v>5</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="F10" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="F11" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F12" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I14" s="4" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I16" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F17" s="4" t="s">
-        <v>26</v>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F17" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="5" t="s">
-        <v>12</v>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F18" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="6" t="s">
-        <v>18</v>
+      <c r="F19" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="F20" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="F21" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="8" t="s">
+    <row r="20" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E23" s="3"/>
     </row>
-    <row r="46" spans="9:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="9:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="6:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F47" s="11"/>
       <c r="I47" s="11"/>
     </row>
-    <row r="48" spans="9:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="6:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>25</v>
@@ -1663,32 +1638,41 @@
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
       <c r="J49" s="11"/>
       <c r="K49" s="12"/>
     </row>
-    <row r="53" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F52" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F53" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="54" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F54" s="4" t="s">
-        <v>1</v>
+      <c r="F54" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F55" s="5" t="s">
-        <v>13</v>
+      <c r="F55" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F56" s="6" t="s">
-        <v>6</v>
+      <c r="F56" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>10</v>
@@ -1696,7 +1680,7 @@
     </row>
     <row r="57" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F57" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I57" s="7" t="s">
         <v>16</v>
@@ -1707,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I58" s="7" t="s">
         <v>15</v>
@@ -1718,7 +1702,7 @@
         <v>14</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I59" s="8" t="s">
         <v>7</v>
@@ -1727,21 +1711,11 @@
     <row r="60" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C60" s="8"/>
       <c r="F60" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F61" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F62" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F63" s="8" t="s">
+    <row r="61" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F61" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1781,6 +1755,7 @@
     </row>
     <row r="78" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="79" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F79" s="11"/>
       <c r="I79" s="11"/>
     </row>
     <row r="80" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -1792,32 +1767,41 @@
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
       <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
       <c r="J81" s="11"/>
       <c r="K81" s="12"/>
     </row>
-    <row r="87" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F86" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F87" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="88" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F88" s="4" t="s">
-        <v>1</v>
+      <c r="F88" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="I88" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F89" s="5" t="s">
-        <v>13</v>
+      <c r="F89" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="I89" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F90" s="6" t="s">
-        <v>6</v>
+      <c r="F90" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="I90" s="6" t="s">
         <v>10</v>
@@ -1825,7 +1809,7 @@
     </row>
     <row r="91" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F91" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I91" s="7" t="s">
         <v>16</v>
@@ -1836,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I92" s="7" t="s">
         <v>15</v>
@@ -1847,7 +1831,7 @@
         <v>14</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I93" s="8" t="s">
         <v>7</v>
@@ -1858,55 +1842,47 @@
         <v>5</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F95" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F96" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="5:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F97" s="8" t="s">
+    <row r="95" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F95" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="5:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="103" spans="5:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F103" s="4" t="s">
+    <row r="100" spans="5:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="5:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F101" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="5:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F104" s="5" t="s">
+    <row r="102" spans="5:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F102" s="5" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="103" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F103" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F104" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="105" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F105" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="106" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F106" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="107" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F107" s="7" t="s">
+      <c r="F105" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="5:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F106" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E108" s="3"/>
-      <c r="F108" s="8" t="s">
-        <v>21</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1919,7 +1895,7 @@
   <dimension ref="A2:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1940,7 +1916,7 @@
     <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
@@ -1952,7 +1928,7 @@
         <v>3</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1984,7 +1960,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -2004,7 +1980,7 @@
     </row>
     <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E8" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>21</v>
@@ -2037,10 +2013,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26AF13F-382D-EE4D-8DB2-01DAED232B99}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView zoomScale="133" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2050,13 +2026,12 @@
     <col min="3" max="3" width="30.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="27.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>0</v>
@@ -2070,317 +2045,281 @@
       <c r="E1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="23" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>57</v>
-      </c>
       <c r="E2" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="29"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="25"/>
       <c r="B3" s="30" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="30"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="25"/>
       <c r="B4" s="30" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="30" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="30"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="25"/>
       <c r="B5" s="30" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="30"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="25"/>
       <c r="B6" s="30" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
       <c r="E6" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="30"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="30" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
       <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="25"/>
       <c r="B8" s="30" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
       <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="25"/>
       <c r="B9" s="30" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
       <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="25"/>
       <c r="B10" s="30" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
       <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="25"/>
       <c r="B11" s="30" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
       <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="25"/>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="25"/>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
       <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="26"/>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="28"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2408,113 +2347,113 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B2" s="21"/>
     </row>
     <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B4" s="14"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B5" s="14"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B6" s="14"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B9" s="14"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B10" s="14"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B11" s="14"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B12" s="14"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B13" s="14"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B14" s="14"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B15" s="14"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B16" s="14"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B17" s="14"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B18" s="14"/>
     </row>

--- a/Chess ADT plan.xlsx
+++ b/Chess ADT plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://technionmail-my.sharepoint.com/personal/guycoh_campus_technion_ac_il/Documents/1 Courses/מבוא לתכנות מערכות/HW/HW1/Chess/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="511" documentId="8_{C52EADB1-DC08-054B-BA97-FE992917F3A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B7C320AD-8C48-B142-8A38-168D8C6274FA}"/>
+  <xr:revisionPtr revIDLastSave="555" documentId="8_{C52EADB1-DC08-054B-BA97-FE992917F3A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BF63F6CC-F46B-0645-9C84-66DB500E1149}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{71E549D7-C5B6-1F42-B866-3BBA66337262}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{71E549D7-C5B6-1F42-B866-3BBA66337262}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="82">
   <si>
     <t>Chess System</t>
   </si>
@@ -253,6 +253,36 @@
   </si>
   <si>
     <t>winner_id</t>
+  </si>
+  <si>
+    <t>game_key 1</t>
+  </si>
+  <si>
+    <t>game_key 2</t>
+  </si>
+  <si>
+    <t>game_key 3</t>
+  </si>
+  <si>
+    <t>game_key 4</t>
+  </si>
+  <si>
+    <t>game_key 5</t>
+  </si>
+  <si>
+    <t>game_key 6</t>
+  </si>
+  <si>
+    <t>game_key 7</t>
+  </si>
+  <si>
+    <t>number_of_games</t>
+  </si>
+  <si>
+    <t>number_of_players</t>
+  </si>
+  <si>
+    <t>longest_play_time</t>
   </si>
 </sst>
 </file>
@@ -314,7 +344,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -540,11 +570,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -635,6 +678,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -659,13 +708,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1174750</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1111250</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -714,13 +763,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>10584</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>814917</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>105834</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -767,13 +816,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1174750</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1111250</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -822,13 +871,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>116416</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1100666</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>105833</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -875,13 +924,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>10584</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>814917</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>105834</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -928,13 +977,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1576917</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1095,7 +1144,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>116417</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1148,7 +1197,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>116417</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1491,10 +1540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB05A1B-EDB7-F047-8698-7677345CFB0F}">
-  <dimension ref="A2:K108"/>
+  <dimension ref="A2:M113"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1508,18 +1557,18 @@
     <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="3:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F5" s="7" t="s">
         <v>4</v>
       </c>
@@ -1527,7 +1576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F6" s="7" t="s">
         <v>5</v>
       </c>
@@ -1535,7 +1584,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>0</v>
       </c>
@@ -1546,7 +1595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="9" t="s">
         <v>14</v>
       </c>
@@ -1557,334 +1606,429 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C9" s="8" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="1">
+        <v>4</v>
+      </c>
+      <c r="M9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F10" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I14" s="4" t="s">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="F11" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="F12" s="31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="F13" s="31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="K16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="K17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L17" s="1">
+        <v>3</v>
+      </c>
+      <c r="M17" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="5:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L18" s="1">
+        <v>4</v>
+      </c>
+      <c r="M18" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="5:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="15" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F15" s="4" t="s">
+      <c r="K19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L19" s="1">
+        <v>4</v>
+      </c>
+      <c r="M19" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="5:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I20" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F16" s="5" t="s">
+      <c r="K20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L20" s="1">
+        <v>5</v>
+      </c>
+      <c r="M20" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="5:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I21" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="F17" s="6" t="s">
+      <c r="K21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L21" s="1">
+        <v>7</v>
+      </c>
+      <c r="M21" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="F22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I22" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="F18" s="7" t="s">
+      <c r="K22" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="F23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I23" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="7" t="s">
+    <row r="24" spans="5:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I24" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="8" t="s">
+    <row r="25" spans="5:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E23" s="3"/>
-    </row>
-    <row r="46" spans="6:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="6:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F47" s="11"/>
-      <c r="I47" s="11"/>
-    </row>
-    <row r="48" spans="6:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="12"/>
+    <row r="28" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E28" s="3"/>
     </row>
     <row r="51" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F52" s="4" t="s">
+      <c r="F52" s="11"/>
+      <c r="I52" s="11"/>
+    </row>
+    <row r="53" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="12"/>
+    </row>
+    <row r="56" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F57" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F53" s="5" t="s">
+    <row r="58" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F58" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F54" s="6" t="s">
+    <row r="59" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F59" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I54" s="4" t="s">
+      <c r="I59" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F55" s="7" t="s">
+    <row r="60" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F60" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I55" s="5" t="s">
+      <c r="I60" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F56" s="7" t="s">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F61" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I56" s="6" t="s">
+      <c r="I61" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F57" s="7" t="s">
+    <row r="62" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F62" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I57" s="7" t="s">
+      <c r="I62" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="2" t="s">
+    <row r="63" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C63" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F63" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I58" s="7" t="s">
+      <c r="I63" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="9" t="s">
+    <row r="64" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C64" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="F64" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I59" s="8" t="s">
+      <c r="I64" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="8"/>
-      <c r="F60" s="7" t="s">
+    <row r="65" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C65" s="8"/>
+      <c r="F65" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F61" s="8" t="s">
+    <row r="66" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F66" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I65" s="4" t="s">
+    <row r="69" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I70" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I66" s="5" t="s">
+    <row r="71" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I71" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="I67" s="6" t="s">
+    <row r="72" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I72" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="I68" s="7" t="s">
+    <row r="73" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I73" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="I69" s="7" t="s">
+    <row r="74" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I74" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I70" s="8" t="s">
+    <row r="75" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I75" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E74" s="3"/>
-    </row>
-    <row r="78" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F79" s="11"/>
-      <c r="I79" s="11"/>
-    </row>
-    <row r="80" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
-      <c r="J81" s="11"/>
-      <c r="K81" s="12"/>
+    <row r="79" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E79" s="3"/>
+    </row>
+    <row r="83" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F84" s="11"/>
+      <c r="I84" s="11"/>
     </row>
     <row r="85" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="86" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F86" s="4" t="s">
+      <c r="A86" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="12"/>
+    </row>
+    <row r="90" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F91" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F87" s="5" t="s">
+    <row r="92" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F92" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F88" s="6" t="s">
+    <row r="93" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F93" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I88" s="4" t="s">
+      <c r="I93" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F89" s="7" t="s">
+    <row r="94" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F94" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I89" s="5" t="s">
+      <c r="I94" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F90" s="7" t="s">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F95" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I90" s="6" t="s">
+      <c r="I95" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F91" s="7" t="s">
+    <row r="96" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F96" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="7" t="s">
+      <c r="I96" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C92" s="2" t="s">
+    <row r="97" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C97" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="F97" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I92" s="7" t="s">
+      <c r="I97" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C93" s="9" t="s">
+    <row r="98" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C98" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F93" s="7" t="s">
+      <c r="F98" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I93" s="8" t="s">
+      <c r="I98" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C94" s="8" t="s">
+    <row r="99" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C99" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F94" s="7" t="s">
+      <c r="F99" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F95" s="8" t="s">
+    <row r="100" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F100" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="5:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="5:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F101" s="4" t="s">
+    <row r="105" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F106" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="5:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F102" s="5" t="s">
+    <row r="107" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F107" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F103" s="6" t="s">
+    <row r="108" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F108" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F104" s="7" t="s">
+    <row r="109" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F109" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F105" s="7" t="s">
+    <row r="110" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F110" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="5:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F106" s="8" t="s">
+    <row r="111" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F111" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E108" s="3"/>
+    <row r="113" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E113" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1894,8 +2038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F94A33-14D8-3B4C-87D8-D0DF5D26FDAD}">
   <dimension ref="A2:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Chess ADT plan.xlsx
+++ b/Chess ADT plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://technionmail-my.sharepoint.com/personal/guycoh_campus_technion_ac_il/Documents/1 Courses/מבוא לתכנות מערכות/HW/HW1/Chess/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="555" documentId="8_{C52EADB1-DC08-054B-BA97-FE992917F3A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BF63F6CC-F46B-0645-9C84-66DB500E1149}"/>
+  <xr:revisionPtr revIDLastSave="556" documentId="8_{C52EADB1-DC08-054B-BA97-FE992917F3A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7787FFDC-FCAB-8048-9289-1DF0CF1C5FFC}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{71E549D7-C5B6-1F42-B866-3BBA66337262}"/>
   </bookViews>
@@ -1083,16 +1083,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>42334</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1513417</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>814917</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>116417</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1107,8 +1107,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6783917" y="931333"/>
-          <a:ext cx="1598083" cy="21167"/>
+          <a:off x="6656917" y="931334"/>
+          <a:ext cx="1725083" cy="31749"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst/>
@@ -1543,7 +1543,7 @@
   <dimension ref="A2:M113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
